--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H2">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I2">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J2">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N2">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O2">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P2">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q2">
-        <v>42.840975755333</v>
+        <v>26.722087192402</v>
       </c>
       <c r="R2">
-        <v>385.568781797997</v>
+        <v>240.498784731618</v>
       </c>
       <c r="S2">
-        <v>0.003846035368059578</v>
+        <v>0.002474869537347537</v>
       </c>
       <c r="T2">
-        <v>0.004221315778185801</v>
+        <v>0.002626598967358309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H3">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I3">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J3">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N3">
         <v>124.30001</v>
       </c>
       <c r="O3">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P3">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q3">
-        <v>75.74951717186556</v>
+        <v>43.06924909827666</v>
       </c>
       <c r="R3">
-        <v>681.74565454679</v>
+        <v>387.62324188449</v>
       </c>
       <c r="S3">
-        <v>0.006800389510739957</v>
+        <v>0.003988864036790703</v>
       </c>
       <c r="T3">
-        <v>0.00746394372186416</v>
+        <v>0.004233413520130895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H4">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I4">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J4">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N4">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O4">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P4">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q4">
-        <v>56.52847911744645</v>
+        <v>34.94534330543767</v>
       </c>
       <c r="R4">
-        <v>508.756312057018</v>
+        <v>314.508089748939</v>
       </c>
       <c r="S4">
-        <v>0.005074826755346541</v>
+        <v>0.003236467458401605</v>
       </c>
       <c r="T4">
-        <v>0.005570007606225414</v>
+        <v>0.003434888973273857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H5">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I5">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J5">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N5">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O5">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P5">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q5">
-        <v>18.6494964145705</v>
+        <v>12.287897978729</v>
       </c>
       <c r="R5">
-        <v>111.896978487423</v>
+        <v>73.727387872374</v>
       </c>
       <c r="S5">
-        <v>0.001674252781182503</v>
+        <v>0.001138045249483268</v>
       </c>
       <c r="T5">
-        <v>0.001225079682586298</v>
+        <v>0.000805211057792692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.828226333333333</v>
+        <v>1.039483</v>
       </c>
       <c r="H6">
-        <v>5.484679</v>
+        <v>3.118449</v>
       </c>
       <c r="I6">
-        <v>0.02222218683751419</v>
+        <v>0.01443400247257094</v>
       </c>
       <c r="J6">
-        <v>0.02377799715221334</v>
+        <v>0.01491631751620889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N6">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O6">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P6">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q6">
-        <v>53.76440017811678</v>
+        <v>38.82471742305233</v>
       </c>
       <c r="R6">
-        <v>483.879601603051</v>
+        <v>349.422456807471</v>
       </c>
       <c r="S6">
-        <v>0.004826682422185614</v>
+        <v>0.003595756190547831</v>
       </c>
       <c r="T6">
-        <v>0.005297650363351669</v>
+        <v>0.003816204997653137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J7">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N7">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O7">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P7">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q7">
-        <v>1483.585546409547</v>
+        <v>1627.556918298178</v>
       </c>
       <c r="R7">
-        <v>13352.26991768592</v>
+        <v>14648.0122646836</v>
       </c>
       <c r="S7">
-        <v>0.1331884342602262</v>
+        <v>0.1507363930217506</v>
       </c>
       <c r="T7">
-        <v>0.146184417253088</v>
+        <v>0.1599777476264795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J8">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N8">
         <v>124.30001</v>
       </c>
       <c r="O8">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P8">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q8">
-        <v>2623.210299071957</v>
+        <v>2623.210299071956</v>
       </c>
       <c r="R8">
         <v>23608.89269164761</v>
       </c>
       <c r="S8">
-        <v>0.2354978944855844</v>
+        <v>0.2429489587578112</v>
       </c>
       <c r="T8">
-        <v>0.2584768164061597</v>
+        <v>0.2578436861273762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J9">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N9">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O9">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P9">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q9">
-        <v>1957.584604471052</v>
+        <v>2128.409163908486</v>
       </c>
       <c r="R9">
-        <v>17618.26144023946</v>
+        <v>19155.68247517637</v>
       </c>
       <c r="S9">
-        <v>0.1757415533148158</v>
+        <v>0.1971228880753818</v>
       </c>
       <c r="T9">
-        <v>0.1928896957245093</v>
+        <v>0.2092081083257431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J10">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N10">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O10">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P10">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q10">
-        <v>645.8331735133095</v>
+        <v>748.4165897156811</v>
       </c>
       <c r="R10">
-        <v>3874.999041079857</v>
+        <v>4490.499538294086</v>
       </c>
       <c r="S10">
-        <v>0.05797947370256016</v>
+        <v>0.06931469857861711</v>
       </c>
       <c r="T10">
-        <v>0.04242458249935583</v>
+        <v>0.04904283181043273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.769555656015713</v>
+        <v>0.8791289547788569</v>
       </c>
       <c r="J11">
-        <v>0.8234334600373736</v>
+        <v>0.9085052224491242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N11">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O11">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P11">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q11">
-        <v>1861.864385890035</v>
+        <v>2364.689441655124</v>
       </c>
       <c r="R11">
-        <v>16756.77947301031</v>
+        <v>21282.20497489612</v>
       </c>
       <c r="S11">
-        <v>0.1671483002525263</v>
+        <v>0.2190060163452963</v>
       </c>
       <c r="T11">
-        <v>0.1834579481542607</v>
+        <v>0.2324328485590927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H12">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I12">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J12">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N12">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O12">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P12">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q12">
-        <v>9.390861887938998</v>
+        <v>9.487700044517332</v>
       </c>
       <c r="R12">
-        <v>84.51775699145098</v>
+        <v>85.38930040065601</v>
       </c>
       <c r="S12">
-        <v>0.000843061725854367</v>
+        <v>0.0008787045581657714</v>
       </c>
       <c r="T12">
-        <v>0.0009253242429564842</v>
+        <v>0.0009325762228116793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H13">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I13">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J13">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N13">
         <v>124.30001</v>
       </c>
       <c r="O13">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P13">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q13">
-        <v>16.60450634695222</v>
+        <v>15.29177394134222</v>
       </c>
       <c r="R13">
-        <v>149.44055712257</v>
+        <v>137.62596547208</v>
       </c>
       <c r="S13">
-        <v>0.00149066442940666</v>
+        <v>0.001416249607560348</v>
       </c>
       <c r="T13">
-        <v>0.001636117371174729</v>
+        <v>0.001503077111986468</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H14">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I14">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J14">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N14">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O14">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P14">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q14">
-        <v>12.39120096514378</v>
+        <v>12.40737420125422</v>
       </c>
       <c r="R14">
-        <v>111.520808686294</v>
+        <v>111.666367811288</v>
       </c>
       <c r="S14">
-        <v>0.001112416239929933</v>
+        <v>0.001149110555177245</v>
       </c>
       <c r="T14">
-        <v>0.001220961269499591</v>
+        <v>0.001219560284718654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H15">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I15">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J15">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N15">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O15">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P15">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q15">
-        <v>4.088021853401499</v>
+        <v>4.362828747634667</v>
       </c>
       <c r="R15">
-        <v>24.52813112040899</v>
+        <v>26.176972485808</v>
       </c>
       <c r="S15">
-        <v>0.0003670008994047112</v>
+        <v>0.0004040639447975164</v>
       </c>
       <c r="T15">
-        <v>0.00026854089800828</v>
+        <v>0.0002858908787273837</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4007523333333333</v>
+        <v>0.3690693333333333</v>
       </c>
       <c r="H16">
-        <v>1.202257</v>
+        <v>1.107208</v>
       </c>
       <c r="I16">
-        <v>0.004871165601616667</v>
+        <v>0.005124804994293743</v>
       </c>
       <c r="J16">
-        <v>0.005212203580597617</v>
+        <v>0.005296051365434103</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N16">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O16">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P16">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q16">
-        <v>11.78530711914811</v>
+        <v>13.78474931882578</v>
       </c>
       <c r="R16">
-        <v>106.067764072333</v>
+        <v>124.062743869432</v>
       </c>
       <c r="S16">
-        <v>0.001058022307020996</v>
+        <v>0.001276676328592862</v>
       </c>
       <c r="T16">
-        <v>0.001161259798958533</v>
+        <v>0.001354946867189919</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H17">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I17">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J17">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N17">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O17">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P17">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q17">
-        <v>378.420965667486</v>
+        <v>179.586648125626</v>
       </c>
       <c r="R17">
-        <v>2270.525794004915</v>
+        <v>1077.519888753756</v>
       </c>
       <c r="S17">
-        <v>0.03397262532684575</v>
+        <v>0.01663244048117754</v>
       </c>
       <c r="T17">
-        <v>0.02485835682628543</v>
+        <v>0.01176809533681012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H18">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I18">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J18">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N18">
         <v>124.30001</v>
       </c>
       <c r="O18">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P18">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q18">
-        <v>669.10720243002</v>
+        <v>289.4482765195966</v>
       </c>
       <c r="R18">
-        <v>4014.64321458012</v>
+        <v>1736.68965911758</v>
       </c>
       <c r="S18">
-        <v>0.06006889246094984</v>
+        <v>0.02680728930484809</v>
       </c>
       <c r="T18">
-        <v>0.0439534462994267</v>
+        <v>0.01896719465901061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H19">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I19">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J19">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N19">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O19">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P19">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q19">
-        <v>499.3248001050841</v>
+        <v>234.8513058368897</v>
       </c>
       <c r="R19">
-        <v>2995.948800630504</v>
+        <v>1409.107835021338</v>
       </c>
       <c r="S19">
-        <v>0.04482672972532311</v>
+        <v>0.02175078385296455</v>
       </c>
       <c r="T19">
-        <v>0.03280049251851561</v>
+        <v>0.01538952135867888</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H20">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I20">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J20">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N20">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O20">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P20">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q20">
-        <v>164.733886611711</v>
+        <v>82.58121435727701</v>
       </c>
       <c r="R20">
-        <v>658.9355464468439</v>
+        <v>330.324857429108</v>
       </c>
       <c r="S20">
-        <v>0.01478893379658113</v>
+        <v>0.007648269773930814</v>
       </c>
       <c r="T20">
-        <v>0.007214212224476301</v>
+        <v>0.003607631241813961</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.149006</v>
+        <v>6.985879</v>
       </c>
       <c r="H21">
-        <v>32.298012</v>
+        <v>13.971758</v>
       </c>
       <c r="I21">
-        <v>0.1962920137562131</v>
+        <v>0.0970041787687547</v>
       </c>
       <c r="J21">
-        <v>0.1400231512834484</v>
+        <v>0.06683039504177611</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N21">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O21">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P21">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q21">
-        <v>474.909263274738</v>
+        <v>260.9227646114803</v>
       </c>
       <c r="R21">
-        <v>2849.455579648428</v>
+        <v>1565.536587668882</v>
       </c>
       <c r="S21">
-        <v>0.04263483244651329</v>
+        <v>0.02416539535583371</v>
       </c>
       <c r="T21">
-        <v>0.03119664341474434</v>
+        <v>0.01709795244546253</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H22">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I22">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J22">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N22">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O22">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P22">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q22">
-        <v>13.608629003291</v>
+        <v>7.975634482531334</v>
       </c>
       <c r="R22">
-        <v>122.477661029619</v>
+        <v>71.780710342782</v>
       </c>
       <c r="S22">
-        <v>0.00122171046608207</v>
+        <v>0.0007386644119418845</v>
       </c>
       <c r="T22">
-        <v>0.001340919979487584</v>
+        <v>0.0007839504880367494</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H23">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I23">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J23">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N23">
         <v>124.30001</v>
       </c>
       <c r="O23">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P23">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q23">
-        <v>24.06217548025889</v>
+        <v>12.85470651194555</v>
       </c>
       <c r="R23">
-        <v>216.55957932233</v>
+        <v>115.69235860751</v>
       </c>
       <c r="S23">
-        <v>0.002160174372732663</v>
+        <v>0.001190540294584578</v>
       </c>
       <c r="T23">
-        <v>0.00237095535807557</v>
+        <v>0.001263530000739262</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H24">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I24">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J24">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N24">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O24">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P24">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q24">
-        <v>17.95652612636511</v>
+        <v>10.42999684358456</v>
       </c>
       <c r="R24">
-        <v>161.608735137286</v>
+        <v>93.86997159226101</v>
       </c>
       <c r="S24">
-        <v>0.001612041587565593</v>
+        <v>0.0009659754972342829</v>
       </c>
       <c r="T24">
-        <v>0.001769338016284439</v>
+        <v>0.001025197573140884</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H25">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I25">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J25">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N25">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O25">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P25">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q25">
-        <v>5.924096576453499</v>
+        <v>3.667519761137667</v>
       </c>
       <c r="R25">
-        <v>35.544579458721</v>
+        <v>22.005118566826</v>
       </c>
       <c r="S25">
-        <v>0.0005318339406404523</v>
+        <v>0.0003396678137118168</v>
       </c>
       <c r="T25">
-        <v>0.0003891520817592742</v>
+        <v>0.0002403281237729416</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.5807443333333333</v>
+        <v>0.3102503333333334</v>
       </c>
       <c r="H26">
-        <v>1.742233</v>
+        <v>0.930751</v>
       </c>
       <c r="I26">
-        <v>0.007058977788943139</v>
+        <v>0.004308058985523854</v>
       </c>
       <c r="J26">
-        <v>0.007553187946366982</v>
+        <v>0.004452013627456771</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N26">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O26">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P26">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q26">
-        <v>17.07850399549745</v>
+        <v>11.58785811992544</v>
       </c>
       <c r="R26">
-        <v>153.706535959477</v>
+        <v>104.290723079329</v>
       </c>
       <c r="S26">
-        <v>0.00153321742192236</v>
+        <v>0.001073210968051292</v>
       </c>
       <c r="T26">
-        <v>0.001682822510760114</v>
+        <v>0.001139007441766934</v>
       </c>
     </row>
   </sheetData>
